--- a/doc/Results.xlsx
+++ b/doc/Results.xlsx
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +97,20 @@
       <family val="3"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF808080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF808080"/>
       <name val="Courier New"/>
@@ -123,12 +137,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -413,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,10 +452,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -456,10 +476,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
